--- a/estimates/maternityLeave86.xlsx
+++ b/estimates/maternityLeave86.xlsx
@@ -982,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="C3">
-        <v>1.6000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J3">
         <v>2</v>
